--- a/Docs/Badge Order Tracking.xlsx
+++ b/Docs/Badge Order Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlfugate/Documents/GitHub/Project-Gimli/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-Gimli/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969BC990-212E-314E-9A68-405BCF54CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{969BC990-212E-314E-9A68-405BCF54CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFCE3EA4-99C4-4E3E-889B-D9BED7F542DA}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="11500" windowWidth="38880" windowHeight="26500" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
+    <workbookView xWindow="9768" yWindow="948" windowWidth="32856" windowHeight="18648" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Badge Order Tracking</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>PCB</t>
-  </si>
-  <si>
-    <t>Speaker</t>
   </si>
   <si>
     <t>QTY</t>
@@ -134,10 +131,37 @@
     <t>EC11 Rotary Encoders</t>
   </si>
   <si>
-    <t>ESP32-S2</t>
-  </si>
-  <si>
     <t>Kevin</t>
+  </si>
+  <si>
+    <t>Kids Badge</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>1Z7759450315420785</t>
+  </si>
+  <si>
+    <t>1Z7759450315381425</t>
+  </si>
+  <si>
+    <t>ESP32-S2, LED's</t>
+  </si>
+  <si>
+    <t>Kids Badge - IR TX/RX, Transisters</t>
+  </si>
+  <si>
+    <t>Solder Village SAO, Poster SAO</t>
+  </si>
+  <si>
+    <t>400+</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Sponsor SOA's, Speaker Add (10)</t>
   </si>
 </sst>
 </file>
@@ -215,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -251,6 +275,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,29 +659,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32386E0F-356F-5A49-9A2E-A7B7341B96CB}">
-  <dimension ref="A3:I35"/>
+  <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="4"/>
+    <col min="3" max="6" width="10.796875" style="4"/>
     <col min="7" max="7" width="27.5" style="4" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="4"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="9" width="10.796875" style="4"/>
+    <col min="10" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -665,7 +693,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -673,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>6</v>
@@ -694,18 +722,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C9" s="10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -713,226 +741,330 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4">
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1409.25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>405</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>30</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
         <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <v>15</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="E16" s="4">
+        <v>315.05</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6">
+        <v>203.51</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1322.27</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6">
+        <v>500</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6">
+        <v>178.59</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2854852803</v>
+      </c>
+      <c r="H19" s="11">
+        <v>44816</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1322.27</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="6">
-        <v>500</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="6">
-        <v>178.59</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="6">
-        <v>2854852803</v>
-      </c>
-      <c r="H17" s="11">
-        <v>44816</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4">
-        <v>450</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4">
-        <v>608.54999999999995</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1281.03</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="C20" s="4">
         <v>450</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4">
+        <v>608.54999999999995</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1281.03</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4">
+        <v>450</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3991.32</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="13">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="6">
+        <v>100</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="6">
+        <v>90.39</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="11">
+        <v>44812</v>
+      </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -943,7 +1075,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -954,7 +1086,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -965,7 +1097,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -976,7 +1108,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -987,7 +1119,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -998,8 +1130,20 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/Badge Order Tracking.xlsx
+++ b/Docs/Badge Order Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-Gimli/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlfugate/Documents/GitHub/Project-Gimli/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{969BC990-212E-314E-9A68-405BCF54CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFCE3EA4-99C4-4E3E-889B-D9BED7F542DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E980F-031F-FF46-AA37-F5FC5F227F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9768" yWindow="948" windowWidth="32856" windowHeight="18648" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
+    <workbookView xWindow="21540" yWindow="8200" windowWidth="46480" windowHeight="19200" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Badge Order Tracking</t>
   </si>
@@ -162,6 +162,30 @@
   </si>
   <si>
     <t>Sponsor SOA's, Speaker Add (10)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Rotary Knobs</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Shows shipped however tracking does not show anything.  Contacted Seller.</t>
+  </si>
+  <si>
+    <t>Shows shipped however tracking does not show anything. Contacted Seller</t>
+  </si>
+  <si>
+    <t>Show in KC, for delivery next week</t>
+  </si>
+  <si>
+    <t>Shows waiting on carrier pickup.  Contacted Seller</t>
   </si>
 </sst>
 </file>
@@ -239,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -279,6 +303,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,29 +689,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32386E0F-356F-5A49-9A2E-A7B7341B96CB}">
-  <dimension ref="A3:I37"/>
+  <dimension ref="A3:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="162" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.796875" style="4"/>
+    <col min="3" max="6" width="10.83203125" style="4"/>
     <col min="7" max="7" width="27.5" style="4" customWidth="1"/>
-    <col min="8" max="9" width="10.796875" style="4"/>
-    <col min="10" max="16384" width="10.796875" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="9" max="9" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" ht="37" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -693,7 +725,10 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -721,8 +756,11 @@
       <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
@@ -740,8 +778,9 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -761,7 +800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -781,8 +820,9 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -799,7 +839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -819,8 +859,9 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -837,7 +878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
@@ -857,8 +898,9 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -878,7 +920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
@@ -900,8 +942,9 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -920,8 +963,11 @@
       <c r="F18" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -947,8 +993,11 @@
         <v>44816</v>
       </c>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -970,8 +1019,11 @@
       <c r="G20" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
@@ -991,10 +1043,15 @@
       <c r="G21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H21" s="11">
+        <v>44813</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1077,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -1046,8 +1103,9 @@
         <v>44812</v>
       </c>
       <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1064,18 +1122,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6">
+        <v>450</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6">
+        <v>323.49</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1085,8 +1158,9 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1096,8 +1170,9 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="16"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1107,8 +1182,9 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="16"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1118,8 +1194,9 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="16"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1129,8 +1206,9 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="16"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1140,6 +1218,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
+      <c r="J37" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Badge Order Tracking.xlsx
+++ b/Docs/Badge Order Tracking.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25704"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-Gimli/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{969BC990-212E-314E-9A68-405BCF54CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFCE3EA4-99C4-4E3E-889B-D9BED7F542DA}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{969BC990-212E-314E-9A68-405BCF54CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61BB04F0-29F2-465F-AD30-ADBE97DDE036}"/>
   <bookViews>
     <workbookView xWindow="9768" yWindow="948" windowWidth="32856" windowHeight="18648" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>Badge Order Tracking</t>
   </si>
@@ -52,9 +53,18 @@
     <t>Description</t>
   </si>
   <si>
+    <t>QTY</t>
+  </si>
+  <si>
     <t>Vendor</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Paid By</t>
+  </si>
+  <si>
     <t>Tracking</t>
   </si>
   <si>
@@ -67,7 +77,19 @@
     <t>PCB</t>
   </si>
   <si>
-    <t>QTY</t>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>PCBWay</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Badge Pirates</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
   <si>
     <t>Participant</t>
@@ -82,93 +104,75 @@
     <t>Organizer</t>
   </si>
   <si>
-    <t>Badge Pirates</t>
+    <t>Sponsor SOA's, Speaker Add (10)</t>
+  </si>
+  <si>
+    <t>Kids Badge</t>
   </si>
   <si>
     <t>Components</t>
   </si>
   <si>
-    <t>PCBWay</t>
+    <t>Resistors, Capacitors, LED, CH340N, Button, Switch, Battery mgmt</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>LCSC</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Carl</t>
   </si>
   <si>
     <t>Voltage Regulators</t>
   </si>
   <si>
-    <t>Resistors, Capacitors, LED, CH340N, Button, Switch, Battery mgmt</t>
-  </si>
-  <si>
     <t>14500 Batteries</t>
   </si>
   <si>
     <t>eBay</t>
   </si>
   <si>
-    <t>Paid By</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
     <t>1Z9L0T7V0320016817</t>
   </si>
   <si>
-    <t>-</t>
+    <t>EC11 Rotary Encoders</t>
+  </si>
+  <si>
+    <t>Mouser</t>
   </si>
   <si>
     <t xml:space="preserve">
 	1Z7759450215446376</t>
   </si>
   <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t>EC11 Rotary Encoders</t>
+    <t>ESP32-S2, LED's</t>
   </si>
   <si>
     <t>Kevin</t>
   </si>
   <si>
-    <t>Kids Badge</t>
-  </si>
-  <si>
-    <t>BP</t>
+    <t>1Z7759450315381425</t>
+  </si>
+  <si>
+    <t>Kids Badge - IR TX/RX, Transisters</t>
   </si>
   <si>
     <t>1Z7759450315420785</t>
   </si>
   <si>
-    <t>1Z7759450315381425</t>
-  </si>
-  <si>
-    <t>ESP32-S2, LED's</t>
-  </si>
-  <si>
-    <t>Kids Badge - IR TX/RX, Transisters</t>
-  </si>
-  <si>
     <t>Solder Village SAO, Poster SAO</t>
   </si>
   <si>
     <t>400+</t>
-  </si>
-  <si>
-    <t>Sponsor</t>
-  </si>
-  <si>
-    <t>Sponsor SOA's, Speaker Add (10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -201,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,19 +276,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,27 +671,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32386E0F-356F-5A49-9A2E-A7B7341B96CB}">
   <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.796875" style="4"/>
+    <col min="3" max="6" width="10.75" style="4"/>
     <col min="7" max="7" width="27.5" style="4" customWidth="1"/>
-    <col min="8" max="9" width="10.796875" style="4"/>
-    <col min="10" max="16384" width="10.796875" style="1"/>
+    <col min="8" max="9" width="10.75" style="4"/>
+    <col min="10" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:9" ht="36.6">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -693,7 +703,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -701,370 +711,432 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
         <v>25</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1409.25</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6">
+        <v>6599387992</v>
+      </c>
+      <c r="H9" s="10">
+        <v>44820</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4">
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1409.25</v>
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6">
         <v>405</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4">
         <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6">
         <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4">
         <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6">
         <v>15</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4">
         <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4">
         <v>315.05</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E17" s="6">
         <v>203.51</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="6">
+        <v>8977584943</v>
+      </c>
+      <c r="H17" s="10">
+        <v>44818</v>
+      </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E18" s="4">
         <v>1322.27</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C19" s="6">
         <v>500</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E19" s="6">
         <v>178.59</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G19" s="6">
         <v>2854852803</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>44816</v>
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4">
         <v>450</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E20" s="4">
         <v>608.54999999999995</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6">
         <v>1281.03</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="13">
         <v>450</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="13">
         <v>3991.32</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="F22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="14">
         <v>44811</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="I22" s="14">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="13">
+        <v>100</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="13">
+        <v>90.39</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6">
-        <v>100</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="6">
-        <v>90.39</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="G23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="14">
         <v>44812</v>
       </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="14">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E24" s="4">
+        <v>293.7</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1075,7 +1147,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1086,7 +1158,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1097,7 +1169,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1108,7 +1180,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1119,7 +1191,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1130,7 +1202,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>

--- a/Docs/Badge Order Tracking.xlsx
+++ b/Docs/Badge Order Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-Gimli/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{969BC990-212E-314E-9A68-405BCF54CF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61BB04F0-29F2-465F-AD30-ADBE97DDE036}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68060CD-2412-4826-992B-AB4792B28CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9768" yWindow="948" windowWidth="32856" windowHeight="18648" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
+    <workbookView xWindow="-33910" yWindow="2370" windowWidth="29190" windowHeight="16520" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Badge Order Tracking</t>
   </si>
@@ -166,13 +164,25 @@
   </si>
   <si>
     <t>400+</t>
+  </si>
+  <si>
+    <t>Duty on PCB Boards</t>
+  </si>
+  <si>
+    <t>Duty on Main PCB Board Order</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>kevin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,9 +327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:colOff>1060450</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -671,27 +681,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32386E0F-356F-5A49-9A2E-A7B7341B96CB}">
   <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="171" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.75" style="4"/>
+    <col min="3" max="6" width="10.69921875" style="4"/>
     <col min="7" max="7" width="27.5" style="4" customWidth="1"/>
-    <col min="8" max="9" width="10.75" style="4"/>
-    <col min="10" max="16384" width="10.75" style="1"/>
+    <col min="8" max="9" width="10.69921875" style="4"/>
+    <col min="10" max="16384" width="10.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="36.6">
+    <row r="3" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -703,7 +713,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -732,7 +742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1">
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -759,7 +769,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -785,7 +795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -812,7 +822,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -838,7 +848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -865,7 +875,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -891,7 +901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -918,7 +928,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -938,7 +948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
@@ -965,7 +975,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -985,7 +995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1012,7 +1022,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1035,7 +1045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1">
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1058,7 +1068,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1097,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>44812</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -1136,18 +1146,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="6">
+        <v>313.13</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="H25" s="10">
+        <v>44820</v>
+      </c>
+      <c r="I25" s="10">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1158,7 +1184,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1169,7 +1195,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1180,7 +1206,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1191,7 +1217,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1202,7 +1228,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>

--- a/Docs/Badge Order Tracking.xlsx
+++ b/Docs/Badge Order Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68060CD-2412-4826-992B-AB4792B28CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB8581C-E1EC-4BF4-B111-B3E6406E5DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33910" yWindow="2370" windowWidth="29190" windowHeight="16520" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
+    <workbookView xWindow="-35570" yWindow="2330" windowWidth="35760" windowHeight="17560" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32386E0F-356F-5A49-9A2E-A7B7341B96CB}">
   <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="171" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Badge Order Tracking.xlsx
+++ b/Docs/Badge Order Tracking.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlfugate/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB8581C-E1EC-4BF4-B111-B3E6406E5DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD34510A-514F-3543-9D9A-2B44296FB1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35570" yWindow="2330" windowWidth="35760" windowHeight="17560" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="42700" xr2:uid="{B1BD5E10-8107-EA4B-AC68-BCA33827D9A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>Badge Order Tracking</t>
   </si>
@@ -176,6 +176,21 @@
   </si>
   <si>
     <t>kevin</t>
+  </si>
+  <si>
+    <t>Duty</t>
+  </si>
+  <si>
+    <t>Duty on LCSC Component Order</t>
+  </si>
+  <si>
+    <t>Rotary Knobs</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>Carl Total</t>
   </si>
 </sst>
 </file>
@@ -259,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -297,6 +312,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -679,29 +697,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32386E0F-356F-5A49-9A2E-A7B7341B96CB}">
-  <dimension ref="A3:I37"/>
+  <dimension ref="A3:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="56.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.69921875" style="4"/>
+    <col min="3" max="6" width="10.6640625" style="4"/>
     <col min="7" max="7" width="27.5" style="4" customWidth="1"/>
-    <col min="8" max="9" width="10.69921875" style="4"/>
-    <col min="10" max="16384" width="10.69921875" style="1"/>
+    <col min="8" max="9" width="10.6640625" style="4"/>
+    <col min="10" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:9" ht="37" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -713,7 +731,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -742,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -769,7 +787,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -795,7 +813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -822,7 +840,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -848,7 +866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -875,7 +893,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -901,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -928,7 +946,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -948,7 +966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
@@ -975,7 +993,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -995,7 +1013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
@@ -1022,7 +1040,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1044,8 +1062,11 @@
       <c r="G20" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="15">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
@@ -1068,7 +1089,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>24</v>
       </c>
@@ -1097,7 +1118,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
@@ -1126,7 +1147,7 @@
         <v>44812</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
@@ -1173,18 +1194,58 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="4">
+        <v>380</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="15">
+        <v>44819</v>
+      </c>
+      <c r="I26" s="15">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="6">
+        <v>323.49</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="10">
+        <v>44824</v>
+      </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1195,7 +1256,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1206,7 +1267,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1217,7 +1278,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1228,7 +1289,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1239,6 +1300,15 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="4">
+        <f>E18+E19+E20+E21+E26+E27</f>
+        <v>4093.9299999999994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
